--- a/Inventario_Solumaster_enviar.xlsx
+++ b/Inventario_Solumaster_enviar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Escritorio\PROGRAMA INVENTARIOS FINAL SANTIAGO\inventarios_solumaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8C41B7-263C-4D51-B0DB-DCECF6C304D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1205B7-2BE4-4FC9-849A-21336B7A6BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>N° de ítem</t>
   </si>
@@ -83,9 +83,6 @@
     <t xml:space="preserve">51303:SF ROJO FUEGO:BF01                </t>
   </si>
   <si>
-    <t xml:space="preserve">51306:SF ROJO AMARILLENTO:BF01          </t>
-  </si>
-  <si>
     <t xml:space="preserve">51308:SF TINTULIT ROJO ESCARLATA:BF01   </t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t xml:space="preserve">RP3210317:NORMAL PROPANOL:FJ20          </t>
   </si>
   <si>
-    <t xml:space="preserve">S1331:POLY ACEITE ROJO AMARILLENTO:BF01 </t>
-  </si>
-  <si>
     <t xml:space="preserve">S1771:POLY ACEITE NEGRO:BF01            </t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t xml:space="preserve">40148:SF AMARILLO FLUORESCENTE:BF01     </t>
   </si>
   <si>
-    <t xml:space="preserve">39609:SF VERDE PANTONE C:BF01           </t>
-  </si>
-  <si>
     <t xml:space="preserve">39407:SF AZUL P REFLEX C:BF01           </t>
   </si>
   <si>
@@ -311,6 +302,9 @@
     <t xml:space="preserve">401Y001:ORO PMS 871:BF01                </t>
   </si>
   <si>
+    <t xml:space="preserve">FUNI500207:AZUL P299U TERMICO:BF01      </t>
+  </si>
+  <si>
     <t xml:space="preserve">USTR26:PROCESS YELLOW:CK01              </t>
   </si>
   <si>
@@ -332,7 +326,7 @@
     <t xml:space="preserve">USTR48:TRANSPARENT WHITE:CK01           </t>
   </si>
   <si>
-    <t xml:space="preserve">OV9T008-T:BZ UV BASICO LITOGRAFICO:FK22 </t>
+    <t xml:space="preserve">AC7K002:AQUASAK NEGRO:FK24              </t>
   </si>
 </sst>
 </file>
@@ -695,15 +689,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -729,8 +724,8 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <f>80+180+17.5</f>
-        <v>277.5</v>
+        <f>190+12.5+50</f>
+        <v>252.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -744,8 +739,8 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <f>70+22.5</f>
-        <v>92.5</v>
+        <f>180+20</f>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -759,8 +754,8 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <f>140+2.5+20+80</f>
-        <v>242.5</v>
+        <f>160+2.5+12.5+90</f>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -774,8 +769,8 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <f>160+17.5</f>
-        <v>177.5</v>
+        <f>180+7.5</f>
+        <v>187.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -789,8 +784,8 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <f>11</f>
-        <v>11</v>
+        <f>6</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -804,8 +799,8 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <f>11</f>
-        <v>11</v>
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -819,8 +814,8 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <f>19+17+7</f>
-        <v>43</v>
+        <f>18+24+8</f>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -864,8 +859,8 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <f>7</f>
-        <v>7</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -879,8 +874,8 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <f>3</f>
-        <v>3</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,8 +889,8 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <f>9+26</f>
-        <v>35</v>
+        <f>14+23</f>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -909,8 +904,8 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <f>4</f>
-        <v>4</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,13 +913,14 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>90358658</v>
+        <v>90358663</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <f>18+19+8</f>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,14 +928,14 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>90358663</v>
+        <v>90358665</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <f>23+8</f>
-        <v>31</v>
+        <f>6+2</f>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -947,14 +943,14 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>90358665</v>
+        <v>90358684</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17">
-        <f>6</f>
-        <v>6</v>
+        <f>1+4</f>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -962,14 +958,14 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>90358684</v>
+        <v>90358695</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18">
-        <f>1+4</f>
-        <v>5</v>
+        <f>6</f>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -977,14 +973,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>90358695</v>
+        <v>90358699</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19">
-        <f>8</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,13 +987,14 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90358699</v>
+        <v>90358701</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <f>26+14+7</f>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,14 +1002,14 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90358701</v>
+        <v>90358702</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21">
-        <f>12+22+9</f>
-        <v>43</v>
+        <f>9</f>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1021,14 +1017,14 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90358702</v>
+        <v>90358710</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22">
-        <f>8</f>
-        <v>8</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,14 +1032,14 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90358710</v>
+        <v>90358714</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23">
-        <f>5</f>
-        <v>5</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,14 +1047,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>90358714</v>
+        <v>90358727</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24">
-        <f>3</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1066,14 +1061,14 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>90358727</v>
+        <v>90358730</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25">
-        <f>4</f>
-        <v>4</v>
+        <f>30+15</f>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,14 +1076,14 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>90358730</v>
+        <v>90358731</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26">
-        <f>28+23</f>
-        <v>51</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1096,14 +1091,14 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>90358731</v>
+        <v>90358755</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27">
-        <f>3</f>
-        <v>3</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,14 +1106,14 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>90358755</v>
+        <v>90358785</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28">
-        <f>8</f>
-        <v>8</v>
+        <f>12</f>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,14 +1121,14 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>90358785</v>
+        <v>90358932</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29">
-        <f>11</f>
-        <v>11</v>
+        <f>24+11+7</f>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,14 +1136,14 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>90358932</v>
+        <v>90358950</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30">
-        <f>7+8</f>
-        <v>15</v>
+        <f>30+8+8</f>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1156,13 +1151,14 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>90358950</v>
+        <v>90358964</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <f>18+5.1</f>
+        <v>23.1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1170,14 +1166,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>90358964</v>
+        <v>90360678</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32">
-        <f>13.5+0.9</f>
-        <v>14.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,14 +1180,14 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>90360678</v>
+        <v>90360703</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33">
-        <f>18+4</f>
-        <v>22</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,14 +1195,14 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>90360703</v>
+        <v>90360943</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34">
-        <f>6</f>
-        <v>6</v>
+        <f>1.5</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1215,14 +1210,14 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>90360943</v>
+        <v>90361084</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35">
-        <f>3</f>
-        <v>3</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,14 +1225,14 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>90361084</v>
+        <v>90362923</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36">
-        <f>2</f>
-        <v>2</v>
+        <f>100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,14 +1240,14 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>90362923</v>
+        <v>90362928</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37">
-        <f>80</f>
-        <v>80</v>
+        <f>9</f>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,14 +1255,14 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>90362928</v>
+        <v>90362932</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38">
-        <f>9</f>
-        <v>9</v>
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1275,14 +1270,14 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>90362932</v>
+        <v>90363878</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39">
-        <f>3</f>
-        <v>3</v>
+        <f>6</f>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1290,14 +1285,14 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>90363878</v>
+        <v>90363886</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40">
-        <f>9</f>
-        <v>9</v>
+        <f>135+75</f>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1305,14 +1300,14 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>90363886</v>
+        <v>90363989</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41">
-        <f>30</f>
-        <v>30</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,14 +1315,14 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>90363958</v>
+        <v>90363991</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42">
-        <f>3</f>
-        <v>3</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1335,14 +1330,14 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>90363989</v>
+        <v>90364027</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43">
-        <f>2</f>
-        <v>2</v>
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1350,14 +1345,14 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>90363991</v>
+        <v>90364055</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44">
-        <f>2</f>
-        <v>2</v>
+        <f>18</f>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,14 +1360,14 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>90364027</v>
+        <v>90364071</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45">
-        <f>8</f>
-        <v>8</v>
+        <f>18</f>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1380,14 +1375,14 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>90364055</v>
+        <v>90364087</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46">
-        <f>8</f>
-        <v>8</v>
+        <f>1+3</f>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1395,13 +1390,14 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>90364071</v>
+        <v>90910594</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <f>90+200+42.5+60</f>
+        <v>392.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1409,14 +1405,14 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>90364087</v>
+        <v>90910599</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48">
-        <f>10+4</f>
-        <v>14</v>
+        <f>160+140+40</f>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,14 +1420,14 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>90910594</v>
+        <v>90910654</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49">
-        <f>140+42.5+80</f>
-        <v>262.5</v>
+        <f>150+190+40</f>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1439,14 +1435,14 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>90910599</v>
+        <v>90910659</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50">
-        <f>150+47.5</f>
-        <v>197.5</v>
+        <f>270+40</f>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1454,14 +1450,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>90910654</v>
+        <v>90942618</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51">
-        <f>150+55</f>
-        <v>205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1469,14 +1464,14 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>90910659</v>
+        <v>91200461</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
       <c r="D52">
-        <f>100+45</f>
-        <v>145</v>
+        <f>4.75</f>
+        <v>4.75</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,13 +1479,14 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>90942618</v>
+        <v>91238656</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <f>20+2.5</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1498,14 +1494,14 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>91200461</v>
+        <v>91238657</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
       <c r="D54">
-        <f>4.75</f>
-        <v>4.75</v>
+        <f>22.5+2.5</f>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1513,14 +1509,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>91238656</v>
+        <v>91238658</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55">
-        <f>17.5+5</f>
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1528,13 +1523,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>91238657</v>
+        <v>91238659</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56">
-        <f>20+5</f>
+        <f>22.5+2.5</f>
         <v>25</v>
       </c>
     </row>
@@ -1543,14 +1538,14 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>91238658</v>
+        <v>91240159</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57">
-        <f>10+10</f>
-        <v>20</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1558,14 +1553,14 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>91238659</v>
+        <v>91240222</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58">
-        <f>17.5</f>
-        <v>17.5</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,14 +1568,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>91240159</v>
+        <v>91240223</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59">
-        <f>2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1588,13 +1582,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>91240222</v>
+        <v>91240225</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1602,13 +1596,14 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>91240223</v>
+        <v>91316664</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <f>1.92</f>
+        <v>1.92</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1616,13 +1611,14 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>91240225</v>
+        <v>91316665</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <f>0.96</f>
+        <v>0.96</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,14 +1626,14 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>91316664</v>
+        <v>91316666</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63">
-        <f>2.88</f>
-        <v>2.88</v>
+        <f>26.46</f>
+        <v>26.46</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1645,14 +1641,14 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>91316665</v>
+        <v>91316667</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64">
-        <f>0.96</f>
-        <v>0.96</v>
+        <f>23.52</f>
+        <v>23.52</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1660,14 +1656,14 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>91316666</v>
+        <v>91316668</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65">
-        <f>23.52</f>
-        <v>23.52</v>
+        <f>15.36</f>
+        <v>15.36</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1675,14 +1671,14 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>91316667</v>
+        <v>91316669</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66">
-        <f>27.44</f>
-        <v>27.44</v>
+        <f>20.58</f>
+        <v>20.58</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1690,14 +1686,14 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>91316668</v>
+        <v>91422261</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67">
-        <f>32.64</f>
-        <v>32.64</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1705,14 +1701,14 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>91316669</v>
+        <v>91423918</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68">
-        <f>34.3</f>
-        <v>34.299999999999997</v>
+        <f>2.88</f>
+        <v>2.88</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1720,14 +1716,14 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>91422261</v>
+        <v>91423919</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69">
-        <f>3</f>
-        <v>3</v>
+        <f>2.91</f>
+        <v>2.91</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1735,7 +1731,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>91423918</v>
+        <v>91423930</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
@@ -1750,14 +1746,14 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>91423919</v>
+        <v>91423932</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71">
-        <f>2.91</f>
-        <v>2.91</v>
+        <f>2.88</f>
+        <v>2.88</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1765,14 +1761,14 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>91423930</v>
+        <v>91424612</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72">
-        <f>2.88</f>
-        <v>2.88</v>
+        <f>3</f>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,14 +1776,14 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>91423932</v>
+        <v>91424633</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73">
-        <f>2.88</f>
-        <v>2.88</v>
+        <f>10+8</f>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,13 +1791,14 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>91424612</v>
+        <v>91425833</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <f>6</f>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1809,14 +1806,14 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>91424633</v>
+        <v>91426244</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75">
-        <f>21+7</f>
-        <v>28</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1824,14 +1821,14 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>91425833</v>
+        <v>91427061</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76">
-        <f>9</f>
-        <v>9</v>
+        <f>7</f>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,13 +1836,14 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>91426205</v>
+        <v>91443150</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,7 +1851,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>91426244</v>
+        <v>91443152</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
@@ -1868,14 +1866,14 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>91427061</v>
+        <v>91642139</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79">
-        <f>10</f>
-        <v>10</v>
+        <f>92.5</f>
+        <v>92.5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1883,14 +1881,14 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>91443150</v>
+        <v>91642141</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80">
-        <f>6</f>
-        <v>6</v>
+        <f>92.5</f>
+        <v>92.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1898,14 +1896,14 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>91443152</v>
+        <v>91642143</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81">
-        <f>6</f>
-        <v>6</v>
+        <f>30+102.5</f>
+        <v>132.5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1913,13 +1911,14 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>91642139</v>
+        <v>91642171</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82">
-        <v>150</v>
+        <f>20+95</f>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1927,13 +1926,14 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>91642141</v>
+        <v>91649531</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
       <c r="D83">
-        <v>167.5</v>
+        <f>80+10+6</f>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1941,13 +1941,14 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>91642143</v>
+        <v>91649532</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84">
-        <v>157.5</v>
+        <f>90+6</f>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1955,13 +1956,14 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>91642171</v>
+        <v>91649533</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
       <c r="D85">
-        <v>155</v>
+        <f>110+8</f>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1969,14 +1971,14 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>91649531</v>
+        <v>91649538</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86">
-        <f>80+10+10</f>
-        <v>100</v>
+        <f>100+11</f>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1984,14 +1986,14 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>91649532</v>
+        <v>91659664</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87">
-        <f>100+6</f>
-        <v>106</v>
+        <f>5+11</f>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1999,14 +2001,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>91649533</v>
+        <v>91680218</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88">
-        <f>110+7</f>
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2014,14 +2015,14 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>91649538</v>
+        <v>91792217</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
       <c r="D89">
-        <f>90+12</f>
-        <v>102</v>
+        <f>30</f>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2029,14 +2030,14 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>91659664</v>
+        <v>91792230</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
       <c r="D90">
-        <f>11+9</f>
-        <v>20</v>
+        <f>45</f>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2044,14 +2045,14 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>91792217</v>
+        <v>91792233</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
       <c r="D91">
-        <f>36</f>
-        <v>36</v>
+        <f>30</f>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2059,14 +2060,14 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>91792230</v>
+        <v>91798054</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92">
-        <f>36</f>
-        <v>36</v>
+        <f>17</f>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2074,14 +2075,14 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>91792233</v>
+        <v>91813779</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93">
-        <f>36</f>
-        <v>36</v>
+        <f>45</f>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2089,14 +2090,14 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>91798054</v>
+        <v>91814337</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94">
-        <f>38+22</f>
-        <v>60</v>
+        <f>24</f>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2104,14 +2105,14 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>91813779</v>
+        <v>91832428</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="D95">
-        <f>54</f>
-        <v>54</v>
+        <f>45</f>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2119,50 +2120,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>91814337</v>
+        <v>91855702</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
       <c r="D96">
-        <f>30</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>91832428</v>
-      </c>
-      <c r="C97" t="s">
-        <v>98</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97">
-        <f>45</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>91843393</v>
-      </c>
-      <c r="C98" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98">
-        <f>20</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D99">
-        <f>SUM(D2:D98)</f>
-        <v>3893.4800000000005</v>
+        <f>SUM(D2:D96)</f>
+        <v>4502.74</v>
       </c>
     </row>
   </sheetData>
